--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Rspo3-Lgr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Rspo3-Lgr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -83,9 +86,6 @@
   </si>
   <si>
     <t>Lgr4</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Inflammatory-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>2.822099333333334</v>
+        <v>0.01818866666666667</v>
       </c>
       <c r="H2">
-        <v>8.466298</v>
+        <v>0.054566</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.006403810693375696</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.006403810693375696</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.263917333333333</v>
+        <v>2.175215</v>
       </c>
       <c r="N2">
-        <v>3.791752</v>
+        <v>6.525645</v>
       </c>
       <c r="O2">
-        <v>0.06307655211196753</v>
+        <v>0.1204575739226287</v>
       </c>
       <c r="P2">
-        <v>0.06307655211196754</v>
+        <v>0.1204575739226287</v>
       </c>
       <c r="Q2">
-        <v>3.566900263788445</v>
+        <v>0.03956426056333334</v>
       </c>
       <c r="R2">
-        <v>32.102102374096</v>
+        <v>0.35607834507</v>
       </c>
       <c r="S2">
-        <v>0.06307655211196753</v>
+        <v>0.0007713874999838233</v>
       </c>
       <c r="T2">
-        <v>0.06307655211196754</v>
+        <v>0.0007713874999838232</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>2.822099333333334</v>
+        <v>0.01818866666666667</v>
       </c>
       <c r="H3">
-        <v>8.466298</v>
+        <v>0.054566</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.006403810693375696</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.006403810693375696</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>32.614791</v>
       </c>
       <c r="O3">
-        <v>0.5425535647195359</v>
+        <v>0.6020398899807737</v>
       </c>
       <c r="P3">
-        <v>0.5425535647195359</v>
+        <v>0.6020398899807737</v>
       </c>
       <c r="Q3">
-        <v>30.68072664596867</v>
+        <v>0.1977398539673333</v>
       </c>
       <c r="R3">
-        <v>276.126539813718</v>
+        <v>1.779658685706</v>
       </c>
       <c r="S3">
-        <v>0.5425535647195359</v>
+        <v>0.003855349485297606</v>
       </c>
       <c r="T3">
-        <v>0.5425535647195359</v>
+        <v>0.003855349485297606</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>2.822099333333334</v>
+        <v>0.01818866666666667</v>
       </c>
       <c r="H4">
-        <v>8.466298</v>
+        <v>0.054566</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.006403810693375696</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.006403810693375696</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1440293333333333</v>
+        <v>0.428447</v>
       </c>
       <c r="N4">
-        <v>0.432088</v>
+        <v>1.285341</v>
       </c>
       <c r="O4">
-        <v>0.007187870211173049</v>
+        <v>0.0237262459915128</v>
       </c>
       <c r="P4">
-        <v>0.007187870211173049</v>
+        <v>0.0237262459915128</v>
       </c>
       <c r="Q4">
-        <v>0.4064650855804445</v>
+        <v>0.007792879667333334</v>
       </c>
       <c r="R4">
-        <v>3.658185770224</v>
+        <v>0.070135917006</v>
       </c>
       <c r="S4">
-        <v>0.007187870211173049</v>
+        <v>0.0001519383877941119</v>
       </c>
       <c r="T4">
-        <v>0.007187870211173049</v>
+        <v>0.0001519383877941119</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>2.822099333333334</v>
+        <v>0.01818866666666667</v>
       </c>
       <c r="H5">
-        <v>8.466298</v>
+        <v>0.054566</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.006403810693375696</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.006403810693375696</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.022347333333333</v>
+        <v>3.202622333333333</v>
       </c>
       <c r="N5">
-        <v>21.067042</v>
+        <v>9.607866999999999</v>
       </c>
       <c r="O5">
-        <v>0.3504544528645356</v>
+        <v>0.1773526370789838</v>
       </c>
       <c r="P5">
-        <v>0.3504544528645357</v>
+        <v>0.1773526370789838</v>
       </c>
       <c r="Q5">
-        <v>19.81776172783511</v>
+        <v>0.05825143008022222</v>
       </c>
       <c r="R5">
-        <v>178.359855550516</v>
+        <v>0.524262870722</v>
       </c>
       <c r="S5">
-        <v>0.3504544528645356</v>
+        <v>0.001135732713824775</v>
       </c>
       <c r="T5">
-        <v>0.3504544528645357</v>
+        <v>0.001135732713824775</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>2.822099333333334</v>
+        <v>0.01818866666666667</v>
       </c>
       <c r="H6">
-        <v>8.466298</v>
+        <v>0.054566</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.006403810693375696</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.006403810693375696</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6215056666666666</v>
+        <v>1.223995666666667</v>
       </c>
       <c r="N6">
-        <v>1.864517</v>
+        <v>3.671987</v>
       </c>
       <c r="O6">
-        <v>0.03101661282545624</v>
+        <v>0.06778159791031105</v>
       </c>
       <c r="P6">
-        <v>0.03101661282545625</v>
+        <v>0.06778159791031105</v>
       </c>
       <c r="Q6">
-        <v>1.753950727562889</v>
+        <v>0.02226284918244445</v>
       </c>
       <c r="R6">
-        <v>15.785556548066</v>
+        <v>0.200365642642</v>
       </c>
       <c r="S6">
-        <v>0.03101661282545624</v>
+        <v>0.0004340605215121416</v>
       </c>
       <c r="T6">
-        <v>0.03101661282545625</v>
+        <v>0.0004340605215121416</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,433 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
+        <v>0.01818866666666667</v>
+      </c>
+      <c r="H7">
+        <v>0.054566</v>
+      </c>
+      <c r="I7">
+        <v>0.006403810693375696</v>
+      </c>
+      <c r="J7">
+        <v>0.006403810693375696</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.1560576666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.468173</v>
+      </c>
+      <c r="O7">
+        <v>0.008642055115789912</v>
+      </c>
+      <c r="P7">
+        <v>0.008642055115789912</v>
+      </c>
+      <c r="Q7">
+        <v>0.002838480879777778</v>
+      </c>
+      <c r="R7">
+        <v>0.025546327918</v>
+      </c>
+      <c r="S7">
+        <v>5.534208496323757E-05</v>
+      </c>
+      <c r="T7">
+        <v>5.534208496323757E-05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
         <v>2.822099333333334</v>
       </c>
-      <c r="H7">
+      <c r="H8">
         <v>8.466298</v>
       </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>0.114435</v>
-      </c>
-      <c r="N7">
-        <v>0.343305</v>
-      </c>
-      <c r="O7">
-        <v>0.00571094726733157</v>
-      </c>
-      <c r="P7">
-        <v>0.00571094726733157</v>
-      </c>
-      <c r="Q7">
-        <v>0.3229469372100001</v>
-      </c>
-      <c r="R7">
-        <v>2.90652243489</v>
-      </c>
-      <c r="S7">
-        <v>0.00571094726733157</v>
-      </c>
-      <c r="T7">
-        <v>0.00571094726733157</v>
+      <c r="I8">
+        <v>0.9935961893066243</v>
+      </c>
+      <c r="J8">
+        <v>0.9935961893066244</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>2.175215</v>
+      </c>
+      <c r="N8">
+        <v>6.525645</v>
+      </c>
+      <c r="O8">
+        <v>0.1204575739226287</v>
+      </c>
+      <c r="P8">
+        <v>0.1204575739226287</v>
+      </c>
+      <c r="Q8">
+        <v>6.138672801356668</v>
+      </c>
+      <c r="R8">
+        <v>55.24805521221</v>
+      </c>
+      <c r="S8">
+        <v>0.1196861864226449</v>
+      </c>
+      <c r="T8">
+        <v>0.1196861864226449</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.822099333333334</v>
+      </c>
+      <c r="H9">
+        <v>8.466298</v>
+      </c>
+      <c r="I9">
+        <v>0.9935961893066243</v>
+      </c>
+      <c r="J9">
+        <v>0.9935961893066244</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>10.871597</v>
+      </c>
+      <c r="N9">
+        <v>32.614791</v>
+      </c>
+      <c r="O9">
+        <v>0.6020398899807737</v>
+      </c>
+      <c r="P9">
+        <v>0.6020398899807737</v>
+      </c>
+      <c r="Q9">
+        <v>30.68072664596867</v>
+      </c>
+      <c r="R9">
+        <v>276.126539813718</v>
+      </c>
+      <c r="S9">
+        <v>0.5981845404954761</v>
+      </c>
+      <c r="T9">
+        <v>0.5981845404954762</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2.822099333333334</v>
+      </c>
+      <c r="H10">
+        <v>8.466298</v>
+      </c>
+      <c r="I10">
+        <v>0.9935961893066243</v>
+      </c>
+      <c r="J10">
+        <v>0.9935961893066244</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.428447</v>
+      </c>
+      <c r="N10">
+        <v>1.285341</v>
+      </c>
+      <c r="O10">
+        <v>0.0237262459915128</v>
+      </c>
+      <c r="P10">
+        <v>0.0237262459915128</v>
+      </c>
+      <c r="Q10">
+        <v>1.209119993068667</v>
+      </c>
+      <c r="R10">
+        <v>10.882079937618</v>
+      </c>
+      <c r="S10">
+        <v>0.02357430760371869</v>
+      </c>
+      <c r="T10">
+        <v>0.02357430760371869</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2.822099333333334</v>
+      </c>
+      <c r="H11">
+        <v>8.466298</v>
+      </c>
+      <c r="I11">
+        <v>0.9935961893066243</v>
+      </c>
+      <c r="J11">
+        <v>0.9935961893066244</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>3.202622333333333</v>
+      </c>
+      <c r="N11">
+        <v>9.607866999999999</v>
+      </c>
+      <c r="O11">
+        <v>0.1773526370789838</v>
+      </c>
+      <c r="P11">
+        <v>0.1773526370789838</v>
+      </c>
+      <c r="Q11">
+        <v>9.038118351818444</v>
+      </c>
+      <c r="R11">
+        <v>81.34306516636599</v>
+      </c>
+      <c r="S11">
+        <v>0.176216904365159</v>
+      </c>
+      <c r="T11">
+        <v>0.176216904365159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2.822099333333334</v>
+      </c>
+      <c r="H12">
+        <v>8.466298</v>
+      </c>
+      <c r="I12">
+        <v>0.9935961893066243</v>
+      </c>
+      <c r="J12">
+        <v>0.9935961893066244</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.223995666666667</v>
+      </c>
+      <c r="N12">
+        <v>3.671987</v>
+      </c>
+      <c r="O12">
+        <v>0.06778159791031105</v>
+      </c>
+      <c r="P12">
+        <v>0.06778159791031105</v>
+      </c>
+      <c r="Q12">
+        <v>3.454237354902889</v>
+      </c>
+      <c r="R12">
+        <v>31.088136194126</v>
+      </c>
+      <c r="S12">
+        <v>0.06734753738879891</v>
+      </c>
+      <c r="T12">
+        <v>0.06734753738879891</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2.822099333333334</v>
+      </c>
+      <c r="H13">
+        <v>8.466298</v>
+      </c>
+      <c r="I13">
+        <v>0.9935961893066243</v>
+      </c>
+      <c r="J13">
+        <v>0.9935961893066244</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.1560576666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.468173</v>
+      </c>
+      <c r="O13">
+        <v>0.008642055115789912</v>
+      </c>
+      <c r="P13">
+        <v>0.008642055115789912</v>
+      </c>
+      <c r="Q13">
+        <v>0.4404102370615555</v>
+      </c>
+      <c r="R13">
+        <v>3.963692133553999</v>
+      </c>
+      <c r="S13">
+        <v>0.008586713030826674</v>
+      </c>
+      <c r="T13">
+        <v>0.008586713030826676</v>
       </c>
     </row>
   </sheetData>
